--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>-0.6961427629420261</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.692755016328691</v>
+        <v>-8.649642063070887</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.043452524729576</v>
+        <v>-3.067359069718568</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.452907570509474</v>
+        <v>-5.44664944975113</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.1898644401422067</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.941338570384543</v>
+        <v>-8.895227479775984</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.132977691561298</v>
+        <v>-3.162474649863707</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.384395549738722</v>
+        <v>-5.376068845131384</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.949203200375315</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.757905498622998</v>
+        <v>-9.713692791926489</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.018511687816087</v>
+        <v>-3.045193801007525</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.25551492056477</v>
+        <v>-5.249505553560418</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>1.445095715399585</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.5256643218675</v>
+        <v>-10.48115049220563</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.921118046976487</v>
+        <v>-2.949999667045335</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.467479303572316</v>
+        <v>-5.456939999784726</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>1.7025111526237</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.30294124927793</v>
+        <v>-11.26094114176168</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.770320902845486</v>
+        <v>-2.798940676857499</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.021110330486507</v>
+        <v>-5.01006042688809</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>1.724745528843595</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.96268857407819</v>
+        <v>-11.92203697375463</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.740758483028869</v>
+        <v>-2.766537227324227</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.154599450260746</v>
+        <v>-5.149663652089415</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>1.557410899559605</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.46281454263213</v>
+        <v>-12.41968849707148</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.618672759029773</v>
+        <v>-2.647187794619053</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.714226751876448</v>
+        <v>-4.70870180007724</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>1.248472026358853</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.43392301361432</v>
+        <v>-13.39701581190349</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.368635959358489</v>
+        <v>-2.391927166113919</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.628563814383035</v>
+        <v>-4.6248194157703</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.8634800565719614</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.1800271679586</v>
+        <v>-14.14283193558526</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.346981290458274</v>
+        <v>-2.36819082106187</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.249554739417906</v>
+        <v>-4.255983060113194</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4647545754708819</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.87727084809757</v>
+        <v>-14.84105753843735</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.168755771873857</v>
+        <v>-2.191876778692345</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.036084741583562</v>
+        <v>-4.041648970291297</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1115341090558419</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.54012104867132</v>
+        <v>-15.50344950841164</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.157601129852706</v>
+        <v>-2.17720030720677</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.521112101607109</v>
+        <v>-3.52308903933621</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1497718158916411</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.50904310507894</v>
+        <v>-16.47463653321088</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.990805191649116</v>
+        <v>-2.012721706606166</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.881540015485949</v>
+        <v>-2.883988276117352</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2896902826493074</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.14713576097898</v>
+        <v>-17.11577969567305</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.71360186358125</v>
+        <v>-1.730634949578336</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.510006645443447</v>
+        <v>-2.520428118505461</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2980585120500763</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.05123782601722</v>
+        <v>-18.02212054449722</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.544475495471833</v>
+        <v>-1.563930657494638</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.915328065766565</v>
+        <v>-1.925081831383652</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1843792058833266</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.96610176399135</v>
+        <v>-18.93858174341804</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.381672709634969</v>
+        <v>-1.3975274883763</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.553928138123559</v>
+        <v>-1.571393270114422</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.02401735557710823</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.75294916477909</v>
+        <v>-19.72921281972704</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.140460122079008</v>
+        <v>-1.153028732807065</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.026138133665056</v>
+        <v>-1.042006004709228</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2877632823097944</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.73898286100085</v>
+        <v>-20.71459190080671</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.04269989675984</v>
+        <v>-1.056250430201026</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6612687457689923</v>
+        <v>-0.6828448608521569</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5613694327868763</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.57741393498498</v>
+        <v>-21.55591637371887</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.892465721651033</v>
+        <v>-0.9055842090984425</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2913195443703388</v>
+        <v>-0.3123981519455178</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8001476913856816</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.22900475511485</v>
+        <v>-22.20555644072532</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6418921375632377</v>
+        <v>-0.6495511347256475</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08031856409489735</v>
+        <v>0.06167512484827943</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9682820099114839</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.85619152274774</v>
+        <v>-22.83499508444698</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3429163098695813</v>
+        <v>-0.3481794156119551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4007788607518263</v>
+        <v>0.3789539919146689</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.03919037534341</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.48633715082285</v>
+        <v>-23.46533709706473</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.07591188571541982</v>
+        <v>-0.07843870016387296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3660187967070436</v>
+        <v>0.3437356972704259</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.001516930174317</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.99615142347967</v>
+        <v>-23.97435273924819</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04164390150043854</v>
+        <v>0.03467879638864028</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6333374361294065</v>
+        <v>0.6041808777008825</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8543975222828558</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.37598531352382</v>
+        <v>-24.3609815344672</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02176978578669837</v>
+        <v>0.01722675670061943</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5597848787645894</v>
+        <v>0.5351320725136193</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6105786378332954</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.64749348985554</v>
+        <v>-24.63180891105115</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3069856031937008</v>
+        <v>0.3058465728464706</v>
       </c>
       <c r="G25" t="n">
-        <v>0.548669513651964</v>
+        <v>0.5251819223539074</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.2907804786774978</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.66150225389618</v>
+        <v>-24.64693052083334</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3224083359412541</v>
+        <v>0.3190043372024053</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3934078942519346</v>
+        <v>0.3659009659814681</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.07642946041753364</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.63154706499432</v>
+        <v>-24.62380951401486</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1411061261890315</v>
+        <v>0.1371391584279885</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3698024722283024</v>
+        <v>0.3411303290049224</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.4593846652154526</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.73852427151406</v>
+        <v>-24.73699247208158</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2583476981366885</v>
+        <v>0.2534511768738829</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08242642485241525</v>
+        <v>0.05358408169209272</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.8250026188155312</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.78208236306848</v>
+        <v>-24.78239657833668</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2129043149730572</v>
+        <v>0.2008201194501441</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01638118469409139</v>
+        <v>-0.04163623687578098</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.142445188381763</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.55198514062515</v>
+        <v>-24.55542841627252</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0814968713506527</v>
+        <v>0.07623376560827881</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2159995261218887</v>
+        <v>-0.2356379803844779</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.384579526685307</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.08229877617822</v>
+        <v>-24.08469466759826</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08309413229734328</v>
+        <v>0.07500308914115657</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6761154171915097</v>
+        <v>-0.6971285632524801</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.531680993181755</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.16440060729869</v>
+        <v>-24.1684854057853</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1465918010797147</v>
+        <v>0.1385269425292114</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7374921329135216</v>
+        <v>-0.7532159886264345</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.570990771766493</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.74011834910687</v>
+        <v>-23.74737148488119</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06020878693000611</v>
+        <v>0.0543303429540711</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.200710899756632</v>
+        <v>-1.216212186321235</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.500380346777333</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.18076280249697</v>
+        <v>-23.1840358782074</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0931806331636565</v>
+        <v>-0.1010360148686922</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.278164963368283</v>
+        <v>-1.288809005578606</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.325179737457474</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.83447139233331</v>
+        <v>-22.84186854343889</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2861088078393318</v>
+        <v>-0.2931131898596553</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.302333354414109</v>
+        <v>-1.310699335929972</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.059627020678879</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.10773075389194</v>
+        <v>-22.11607055080212</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.414570483322348</v>
+        <v>-0.4241147720939663</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.507345724612698</v>
+        <v>-1.513708583793777</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.7137541955646345</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.30169003713823</v>
+        <v>-21.30518568199697</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3494100920790774</v>
+        <v>-0.3596613652041489</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.628384064384455</v>
+        <v>-1.640572998330102</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.3008779775243925</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.92613733012332</v>
+        <v>-20.92866414457177</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4091502699458734</v>
+        <v>-0.4148977908933912</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.876417741720956</v>
+        <v>-1.890217028916135</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.1664396647455657</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.27029151156989</v>
+        <v>-20.27469052532471</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2561274343317791</v>
+        <v>-0.2674653685927139</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.034009791026812</v>
+        <v>-2.041852080429006</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6644789339925434</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.96084184160286</v>
+        <v>-19.96908999239314</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5385284066278104</v>
+        <v>-0.5486487567244647</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.256173077948062</v>
+        <v>-2.267144427729428</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.170274640742822</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.43235794509374</v>
+        <v>-19.43403375985748</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2616131092224624</v>
+        <v>-0.2715894439878576</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.103477549905011</v>
+        <v>-2.109185793944004</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.65621583590891</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.87349990599182</v>
+        <v>-18.87838333495179</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.005907342420710536</v>
+        <v>-0.01261060147567428</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.080592204537674</v>
+        <v>-2.081901434821846</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.106955056808241</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.97490970044996</v>
+        <v>-17.97549885407783</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01448280078204111</v>
+        <v>-0.02223344406434294</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.971690429500196</v>
+        <v>-1.97331387505257</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.511283175407757</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.63774362536698</v>
+        <v>-17.64186770076213</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03395871973234534</v>
+        <v>0.02548799979374857</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.176205292190799</v>
+        <v>-2.175354292506087</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.865892854190435</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.12768059895618</v>
+        <v>-17.1310453207865</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002615746729253134</v>
+        <v>-0.005017065827473164</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.220417998887308</v>
+        <v>-2.216359385006373</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>3.168342580481044</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.75148636910202</v>
+        <v>-16.75394772203627</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02065694004515166</v>
+        <v>0.01350854269356922</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.168284448971555</v>
+        <v>-2.15504813079857</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>3.416486398346875</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.08647593855939</v>
+        <v>-16.08267917073529</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03144499758673393</v>
+        <v>0.02073549386220201</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.460282079250571</v>
+        <v>-2.447556360888413</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>3.610913629985181</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.4326201500379</v>
+        <v>-15.43158585811341</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002288439158209982</v>
+        <v>-0.009167325828300328</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.395959595389171</v>
+        <v>-2.3820686620741</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>3.751829118939975</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.89965868595692</v>
+        <v>-14.89493236463105</v>
       </c>
       <c r="F49" t="n">
-        <v>0.149013877105434</v>
+        <v>0.1426510179243552</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.585326663691897</v>
+        <v>-2.563423241037689</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>3.846298957681439</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.20405154367317</v>
+        <v>-14.19452034720439</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2971794683652479</v>
+        <v>0.2868234568174426</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.506026585379562</v>
+        <v>-2.47612376568906</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>3.899140080724455</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.4366462126054</v>
+        <v>-13.42735067758777</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2911962859665791</v>
+        <v>0.2843751961860398</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.578453204699991</v>
+        <v>-2.543562217626791</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>3.920202541528832</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.84700816952258</v>
+        <v>-12.83976812605111</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3748953780337339</v>
+        <v>0.368008826738986</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.589267446847257</v>
+        <v>-2.555214367155927</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>3.915276933322113</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.19194788913966</v>
+        <v>-12.18839987506955</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4232190678225448</v>
+        <v>0.4186760387364659</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.611930223066285</v>
+        <v>-2.574512421544631</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.890318166415457</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.82054544212557</v>
+        <v>-11.8108571380227</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3128771394724775</v>
+        <v>0.3078627874840964</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.718855060374661</v>
+        <v>-2.680874289830814</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.848272857412657</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.36265524253905</v>
+        <v>-11.35647567559775</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06445069305072536</v>
+        <v>0.05921377191403493</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.186643040909534</v>
+        <v>-3.147117378630363</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.789641023504565</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.92122206762457</v>
+        <v>-10.90911168749597</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1534783523744626</v>
+        <v>0.1507551533833836</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.255587107674063</v>
+        <v>-3.21778962937</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>3.715864516183936</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.16353122526536</v>
+        <v>-10.15269079851241</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09025562195176744</v>
+        <v>0.0864195772191417</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.61744526591653</v>
+        <v>-3.584059893670128</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>3.625012694473582</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.858925707349757</v>
+        <v>-9.852235540597635</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08042873019581531</v>
+        <v>-0.08943623455092285</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.654431021444406</v>
+        <v>-3.616725189260235</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>3.517373622933873</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.317009108125031</v>
+        <v>-9.306443619731759</v>
       </c>
       <c r="F59" t="n">
-        <v>0.006700545215871667</v>
+        <v>0.001005393479720828</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.935575132667632</v>
+        <v>-3.902006468181446</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>3.391519896829668</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.955543718967816</v>
+        <v>-8.940330463065731</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1311875883131873</v>
+        <v>-0.1351938329827555</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.849035010883822</v>
+        <v>-3.813423947154328</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.249734835022635</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.424677023341507</v>
+        <v>-8.411021751477588</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.152567318853726</v>
+        <v>-0.1599382853536177</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.249266708755388</v>
+        <v>-4.21590752111467</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>3.094342969885637</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.918031087972392</v>
+        <v>-7.900827802038364</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09641443196556285</v>
+        <v>-0.1033009832603108</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.210683692280822</v>
+        <v>-4.171210399213018</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>2.93071575816152</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.435056036141118</v>
+        <v>-7.419607118787881</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1521483651627907</v>
+        <v>-0.1597026239024667</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.212123845593411</v>
+        <v>-4.17426090577514</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.764218055418278</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.079181060297319</v>
+        <v>-7.063797604458292</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3088632301782517</v>
+        <v>-0.3179492883504096</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.462029722236278</v>
+        <v>-4.421653060272395</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.601068403598333</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.707006167415573</v>
+        <v>-6.692303511324314</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2568736955937576</v>
+        <v>-0.262778324175376</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.745281694217022</v>
+        <v>-4.706502293199829</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.448096908053097</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.460124612729144</v>
+        <v>-6.44226671165303</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3726751142288246</v>
+        <v>-0.3800722653343999</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.735514836297094</v>
+        <v>-4.700938064492096</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.313503803589425</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.296117335030842</v>
+        <v>-6.277853572566634</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4267856018736785</v>
+        <v>-0.4366702905191817</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.848239563764356</v>
+        <v>-4.817263175240832</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.205893446329874</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.017932084249846</v>
+        <v>-6.001435782669271</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.395311705842169</v>
+        <v>-0.4037169642665571</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.846118610703996</v>
+        <v>-4.81353186893094</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>2.131635379182826</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.882819518923233</v>
+        <v>-5.866990924787586</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6491190887318705</v>
+        <v>-0.6619495455167621</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.945371358547122</v>
+        <v>-4.91448661614349</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>2.09741106654618</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.647105698560797</v>
+        <v>-5.629954781838136</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5971950156615849</v>
+        <v>-0.6060192277769083</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.810481362368818</v>
+        <v>-4.781573557694287</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>2.105945428914691</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.52296448301555</v>
+        <v>-5.508039257775983</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6953872869745304</v>
+        <v>-0.7050624987745661</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.78531795630702</v>
+        <v>-4.758099058699072</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>2.159790209238462</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.504609074431451</v>
+        <v>-5.48495752786602</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.786313330210318</v>
+        <v>-0.798646279487224</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.682595748210837</v>
+        <v>-4.658021495776918</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>2.255061570050208</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.539316769264866</v>
+        <v>-5.52014963790458</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8455036313577615</v>
+        <v>-0.8568284733158547</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.495886417384982</v>
+        <v>-4.471390718768113</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>2.386352281468562</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.776732588996727</v>
+        <v>-5.756177673535217</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7384609633238093</v>
+        <v>-0.7492228362597081</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.385819427394591</v>
+        <v>-4.357657883982038</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>2.543991699777891</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.976835345629668</v>
+        <v>-5.956791029978985</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.066226764966421</v>
+        <v>-1.07941071392804</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.220424365595066</v>
+        <v>-4.19375534470647</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.719310239965116</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.504874103842164</v>
+        <v>-6.485013080431266</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.977487136305202</v>
+        <v>-0.9916922848884748</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.058053625751979</v>
+        <v>-4.024694438111261</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.900843428544396</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.96897005497567</v>
+        <v>-6.951282353836498</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.034176807609876</v>
+        <v>-1.050790939916026</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.976554040562234</v>
+        <v>-3.947986635761588</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.079710234622712</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.544350580263846</v>
+        <v>-7.528508893825358</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.125259958479764</v>
+        <v>-1.14207047532854</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.578377834236819</v>
+        <v>-3.543578493283511</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>3.244606238846561</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.970714514607498</v>
+        <v>-7.953079182679693</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.087894526169478</v>
+        <v>-1.107965026425844</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.371794387697224</v>
+        <v>-3.336654646870031</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.389784415674207</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.442718216657406</v>
+        <v>-8.425423284603486</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.273661211190729</v>
+        <v>-1.293797172961304</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.004856415952167</v>
+        <v>-2.969022783074363</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.509330952980712</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.385547313501467</v>
+        <v>-9.366628935895173</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.197293808714941</v>
+        <v>-1.216212186321235</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.98477282339296</v>
+        <v>-2.946032699284292</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.602010181914432</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.20944593133129</v>
+        <v>-10.19330312192744</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288246036556412</v>
+        <v>-1.30946865946285</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.809833472821816</v>
+        <v>-2.771643225432501</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.666345376287073</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.04157960764856</v>
+        <v>-11.02827782796136</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.393324859164105</v>
+        <v>-1.420713956708996</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.4371348878264</v>
+        <v>-2.396038149206221</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.702039922818599</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.25557648095045</v>
+        <v>-12.24333517779343</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.471773937791728</v>
+        <v>-1.494777113884641</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.330930127174318</v>
+        <v>-2.29256967984806</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.709634805912263</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13969969185221</v>
+        <v>-13.13194904856991</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.568329671249458</v>
+        <v>-1.593218138951579</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.988095084960879</v>
+        <v>-1.948608699590233</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.688090084720888</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32880809745198</v>
+        <v>-14.32351880710392</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.772648149397435</v>
+        <v>-1.805064691233549</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.741658668571069</v>
+        <v>-1.704162313232366</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.637575889046232</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42886265912233</v>
+        <v>-15.42630966006819</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.814726810730742</v>
+        <v>-1.845690106951425</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.32926422135954</v>
+        <v>-1.287958005893894</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.555499567554409</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.8412471973849</v>
+        <v>-16.84343361195946</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.837900186760598</v>
+        <v>-1.870172713265452</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.020875027922682</v>
+        <v>-0.981742134728763</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>3.440348896810876</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.52782383406173</v>
+        <v>-18.53605889254917</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.065483687058322</v>
+        <v>-2.09588401425681</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8121313514142018</v>
+        <v>-0.7752241497033761</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.28901440051763</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.14152871312152</v>
+        <v>-20.15007798687716</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.288786004326802</v>
+        <v>-2.319801669758851</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5186281063083868</v>
+        <v>-0.4870887487626687</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.09813100751366</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.96773475960536</v>
+        <v>-21.97688627929173</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.496115712128375</v>
+        <v>-2.530090238002655</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6758666634375169</v>
+        <v>-0.651488795546223</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.865339709821279</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.68954278322928</v>
+        <v>-23.69961076411457</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.599872212149055</v>
+        <v>-2.632275661682327</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4988718213202222</v>
+        <v>-0.4723468157628852</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.585248877170329</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.76490844509402</v>
+        <v>-25.78000387027053</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.779406961017644</v>
+        <v>-2.806089074209082</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4954285456728482</v>
+        <v>-0.4675812175284969</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.257257668938964</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.03070165179166</v>
+        <v>-28.04863810668482</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.650604885660743</v>
+        <v>-2.678373659988044</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6326620640598208</v>
+        <v>-0.6021569984385992</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.878023573277048</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.31216634499084</v>
+        <v>-30.3279687545208</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.142443426515866</v>
+        <v>-3.166035756236657</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.01144856987664</v>
+        <v>-0.9871623481052376</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.445708930878419</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.49283339861157</v>
+        <v>-32.51238020675427</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.201987219840037</v>
+        <v>-3.225330795806834</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.231975318942673</v>
+        <v>-1.213803202598358</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.9649721407652276</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.71906166612152</v>
+        <v>-34.73672318265501</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.577513742249265</v>
+        <v>-3.599862303200092</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.465044494131081</v>
+        <v>-1.448155423465254</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.4287727918852514</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.22418216876591</v>
+        <v>-37.23980128605609</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.822942051320262</v>
+        <v>-3.844740735551736</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.888868521723437</v>
+        <v>-1.879023109986459</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1394174385150235</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.75559201551648</v>
+        <v>-39.77265128611926</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.715244768144224</v>
+        <v>-3.739203682344582</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.365781837338992</v>
+        <v>-2.35749440964018</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.7606692344088736</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.3270512166599</v>
+        <v>-42.33904376606292</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.899780776698353</v>
+        <v>-3.922142429952021</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.724118166117035</v>
+        <v>-2.720072644538942</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.3698409766009</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.57897967464815</v>
+        <v>-44.5829466424092</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.141490871762299</v>
+        <v>-4.160356880157226</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.328812357467837</v>
+        <v>-3.328602880622369</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.039773417061898</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.88670752734784</v>
+        <v>-46.88627548135406</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.28424934194848</v>
+        <v>-4.303468842520134</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.601930887049085</v>
+        <v>-3.604876655188473</v>
       </c>
     </row>
   </sheetData>
